--- a/Aero/Aerodynamics coeff.xlsx
+++ b/Aero/Aerodynamics coeff.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescovalentia/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescovalentia/ULB/MA1/Formula student/Github2.0/Aero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4BB66F-F5E9-F342-83DA-0046BB97E553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6936B8A4-9243-5440-8CC5-F9AA22C862EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="2380" windowWidth="23220" windowHeight="14420" xr2:uid="{72CD3AEE-6873-D14B-A109-DC4015D2E3EA}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{72CD3AEE-6873-D14B-A109-DC4015D2E3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Run</t>
   </si>
@@ -94,14 +94,23 @@
   <si>
     <t>U_inf [km/h]</t>
   </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -234,8 +243,8 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -257,10 +266,7 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.0"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -272,22 +278,25 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.0"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <font>
@@ -439,10 +448,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$15</c:f>
+              <c:f>Sheet1!$I$4:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2.5</c:v>
                 </c:pt>
@@ -484,10 +493,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$K$15</c:f>
+              <c:f>Sheet1!$K$4:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>-0.68951562500000008</c:v>
                 </c:pt>
@@ -574,10 +583,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$15</c:f>
+              <c:f>Sheet1!$I$4:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2.5</c:v>
                 </c:pt>
@@ -619,10 +628,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$4:$L$15</c:f>
+              <c:f>Sheet1!$L$4:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>-7.0363281249999998</c:v>
                 </c:pt>
@@ -709,10 +718,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$15</c:f>
+              <c:f>Sheet1!$I$4:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2.5</c:v>
                 </c:pt>
@@ -754,10 +763,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$4:$M$15</c:f>
+              <c:f>Sheet1!$M$4:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>5.0558593749999998</c:v>
                 </c:pt>
@@ -1009,7 +1018,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-BE"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1698,15 +1707,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>178987</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171936</xdr:rowOff>
+      <xdr:colOff>782237</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>22678</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1741,7 +1750,7 @@
     <tableColumn id="1" xr3:uid="{A148976A-D719-7442-B3C1-F3471ED4FD78}" name="Run" dataDxfId="11">
       <calculatedColumnFormula>B3+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DE3945F9-9217-3F49-B334-6989CCC41E20}" name="U_inf [m/s]" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{DE3945F9-9217-3F49-B334-6989CCC41E20}" name="U_inf [m/s]" dataDxfId="0">
       <calculatedColumnFormula>2.5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{60B52B16-BB8D-C34D-928E-512C115F45DC}" name="Cm" dataDxfId="10"/>
@@ -1749,19 +1758,19 @@
     <tableColumn id="5" xr3:uid="{AB8939B4-3BA1-734F-9DC5-A4689D7D934A}" name="Cl" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{2E64F88D-F11E-6144-8044-48CE8983E43C}" name="Cl(f)" dataDxfId="7"/>
     <tableColumn id="7" xr3:uid="{352995C1-80D8-8B42-848E-1F24996C4F28}" name="Cl(r) " dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{DBD9379A-3617-E843-992B-5B4A4FC25E37}" name="U_inf [m/s]2" dataDxfId="1">
+    <tableColumn id="13" xr3:uid="{DBD9379A-3617-E843-992B-5B4A4FC25E37}" name="U_inf [m/s]2" dataDxfId="5">
       <calculatedColumnFormula>Table2[[#This Row],[U_inf '[m/s']]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{C0A6AA7F-934F-DF46-817C-BC28C5783A0D}" name="U_inf [km/h]" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{C0A6AA7F-934F-DF46-817C-BC28C5783A0D}" name="U_inf [km/h]" dataDxfId="4">
       <calculatedColumnFormula>Table2[[#This Row],[U_inf '[m/s']2]]*3.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{6678AE7F-BDD0-B748-B7D1-9533ED74FB05}" name="Fz(f) [N]" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{6678AE7F-BDD0-B748-B7D1-9533ED74FB05}" name="Fz(f) [N]" dataDxfId="3">
       <calculatedColumnFormula>0.5*$C$20*(Table2[[#This Row],[U_inf '[m/s']]]^2)*$C$18*Table2[[#This Row],[Cl(f)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{F58C6A02-5088-F742-9168-8CC96812DE14}" name="Fz(r)  [N]" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{F58C6A02-5088-F742-9168-8CC96812DE14}" name="Fz(r)  [N]" dataDxfId="2">
       <calculatedColumnFormula>0.5*$C$20*(Table2[[#This Row],[U_inf '[m/s']]]^2)*$C$18*Table2[[#This Row],[Cl(r) ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BBAF3D65-D13A-1E41-BAD3-6B5FC01BDA8E}" name="Fx [N]" dataDxfId="2">
+    <tableColumn id="12" xr3:uid="{BBAF3D65-D13A-1E41-BAD3-6B5FC01BDA8E}" name="Fx [N]" dataDxfId="1">
       <calculatedColumnFormula>0.5*$C$20*(Table2[[#This Row],[U_inf '[m/s']]]^2)*$C$18*Table2[[#This Row],[Cd]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2086,10 +2095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF74FE9-228C-0741-A96B-1A134E6AF4AD}">
-  <dimension ref="B1:M20"/>
+  <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2100,7 +2109,6 @@
     <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="22" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -2695,12 +2703,20 @@
         <v>635.88374999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
@@ -2710,8 +2726,16 @@
       <c r="D18" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="G18">
+        <f>AVERAGE(Table2[Cl(f)])</f>
+        <v>-0.14357291666666666</v>
+      </c>
+      <c r="H18">
+        <f>AVERAGE(Table2[Cl(r) ])</f>
+        <v>-1.6056016666666668</v>
+      </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
@@ -2722,7 +2746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
@@ -2731,6 +2755,11 @@
       </c>
       <c r="D20" s="9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Aero/Aerodynamics coeff.xlsx
+++ b/Aero/Aerodynamics coeff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescovalentia/ULB/MA1/Formula student/Github2.0/Aero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6936B8A4-9243-5440-8CC5-F9AA22C862EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D7EDD4-B958-5944-BF93-22E05F4EA64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{72CD3AEE-6873-D14B-A109-DC4015D2E3EA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{72CD3AEE-6873-D14B-A109-DC4015D2E3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Run</t>
   </si>
@@ -266,9 +266,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -297,6 +294,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -1750,27 +1750,27 @@
     <tableColumn id="1" xr3:uid="{A148976A-D719-7442-B3C1-F3471ED4FD78}" name="Run" dataDxfId="11">
       <calculatedColumnFormula>B3+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DE3945F9-9217-3F49-B334-6989CCC41E20}" name="U_inf [m/s]" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{DE3945F9-9217-3F49-B334-6989CCC41E20}" name="U_inf [m/s]" dataDxfId="10">
       <calculatedColumnFormula>2.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{60B52B16-BB8D-C34D-928E-512C115F45DC}" name="Cm" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{D088FB0B-B1F1-A14A-AEB4-5C900D3B9D20}" name="Cd" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{AB8939B4-3BA1-734F-9DC5-A4689D7D934A}" name="Cl" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{2E64F88D-F11E-6144-8044-48CE8983E43C}" name="Cl(f)" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{352995C1-80D8-8B42-848E-1F24996C4F28}" name="Cl(r) " dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{DBD9379A-3617-E843-992B-5B4A4FC25E37}" name="U_inf [m/s]2" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{60B52B16-BB8D-C34D-928E-512C115F45DC}" name="Cm" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{D088FB0B-B1F1-A14A-AEB4-5C900D3B9D20}" name="Cd" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{AB8939B4-3BA1-734F-9DC5-A4689D7D934A}" name="Cl" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{2E64F88D-F11E-6144-8044-48CE8983E43C}" name="Cl(f)" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{352995C1-80D8-8B42-848E-1F24996C4F28}" name="Cl(r) " dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{DBD9379A-3617-E843-992B-5B4A4FC25E37}" name="U_inf [m/s]2" dataDxfId="4">
       <calculatedColumnFormula>Table2[[#This Row],[U_inf '[m/s']]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{C0A6AA7F-934F-DF46-817C-BC28C5783A0D}" name="U_inf [km/h]" dataDxfId="4">
+    <tableColumn id="15" xr3:uid="{C0A6AA7F-934F-DF46-817C-BC28C5783A0D}" name="U_inf [km/h]" dataDxfId="3">
       <calculatedColumnFormula>Table2[[#This Row],[U_inf '[m/s']2]]*3.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{6678AE7F-BDD0-B748-B7D1-9533ED74FB05}" name="Fz(f) [N]" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{6678AE7F-BDD0-B748-B7D1-9533ED74FB05}" name="Fz(f) [N]" dataDxfId="2">
       <calculatedColumnFormula>0.5*$C$20*(Table2[[#This Row],[U_inf '[m/s']]]^2)*$C$18*Table2[[#This Row],[Cl(f)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{F58C6A02-5088-F742-9168-8CC96812DE14}" name="Fz(r)  [N]" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{F58C6A02-5088-F742-9168-8CC96812DE14}" name="Fz(r)  [N]" dataDxfId="1">
       <calculatedColumnFormula>0.5*$C$20*(Table2[[#This Row],[U_inf '[m/s']]]^2)*$C$18*Table2[[#This Row],[Cl(r) ]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BBAF3D65-D13A-1E41-BAD3-6B5FC01BDA8E}" name="Fx [N]" dataDxfId="1">
+    <tableColumn id="12" xr3:uid="{BBAF3D65-D13A-1E41-BAD3-6B5FC01BDA8E}" name="Fx [N]" dataDxfId="0">
       <calculatedColumnFormula>0.5*$C$20*(Table2[[#This Row],[U_inf '[m/s']]]^2)*$C$18*Table2[[#This Row],[Cd]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2098,7 +2098,7 @@
   <dimension ref="B2:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2709,6 +2709,9 @@
       <c r="D17" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
       <c r="G17" t="s">
         <v>21</v>
       </c>
@@ -2725,6 +2728,10 @@
       </c>
       <c r="D18" s="12" t="s">
         <v>14</v>
+      </c>
+      <c r="E18">
+        <f>AVERAGE(Table2[Cd])</f>
+        <v>1.1752233333333333</v>
       </c>
       <c r="G18">
         <f>AVERAGE(Table2[Cl(f)])</f>
